--- a/data/calcs/save_calcs/2021_mean_data.xlsx
+++ b/data/calcs/save_calcs/2021_mean_data.xlsx
@@ -494,7 +494,7 @@
         <v>-8</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -525,7 +525,7 @@
         <v>-8</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -556,7 +556,7 @@
         <v>1.5</v>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
         <v>1.5</v>
@@ -587,7 +587,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="G5" t="n">
         <v>1.285714285714286</v>
@@ -618,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>7.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -649,7 +649,7 @@
         <v>2.5</v>
       </c>
       <c r="F7" t="n">
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
         <v>1.153846153846154</v>
       </c>
       <c r="F8" t="n">
-        <v>5.846153846153846</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -742,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -773,7 +773,7 @@
         <v>-2</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>-9</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -835,7 +835,7 @@
         <v>1.642857142857143</v>
       </c>
       <c r="F13" t="n">
-        <v>5.5</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="G13" t="n">
         <v>1.357142857142857</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>37</v>
+        <v>10.5</v>
       </c>
       <c r="G14" t="n">
         <v>9</v>
@@ -897,7 +897,7 @@
         <v>-1.5</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -928,7 +928,7 @@
         <v>3.571428571428572</v>
       </c>
       <c r="F16" t="n">
-        <v>4.714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>-3</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>-0.2857142857142857</v>
       </c>
       <c r="F21" t="n">
-        <v>4.571428571428571</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1114,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>6.555555555555555</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="G22" t="n">
         <v>1.222222222222222</v>
@@ -1145,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G23" t="n">
         <v>4</v>
@@ -1176,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1207,7 +1207,7 @@
         <v>-5</v>
       </c>
       <c r="F25" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1238,7 +1238,7 @@
         <v>-8</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>-7.5</v>
       </c>
       <c r="F27" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="G27" t="n">
         <v>1.5</v>
@@ -1300,7 +1300,7 @@
         <v>5.25</v>
       </c>
       <c r="F28" t="n">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="G28" t="n">
         <v>1.25</v>
@@ -1331,7 +1331,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="F29" t="n">
-        <v>9.333333333333334</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1362,7 +1362,7 @@
         <v>-0.7142857142857143</v>
       </c>
       <c r="F30" t="n">
-        <v>5.285714285714286</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="G30" t="n">
         <v>1.428571428571429</v>
@@ -1393,7 +1393,7 @@
         <v>-14</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1424,7 +1424,7 @@
         <v>3.666666666666667</v>
       </c>
       <c r="F32" t="n">
-        <v>14.66666666666667</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
         <v>2.333333333333333</v>
@@ -1455,7 +1455,7 @@
         <v>-12</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1517,7 +1517,7 @@
         <v>-5.75</v>
       </c>
       <c r="F35" t="n">
-        <v>6.75</v>
+        <v>1.25</v>
       </c>
       <c r="G35" t="n">
         <v>1.25</v>
@@ -1548,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>5.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G36" t="n">
         <v>1.666666666666667</v>
@@ -1579,7 +1579,7 @@
         <v>1.041666666666667</v>
       </c>
       <c r="F37" t="n">
-        <v>5.791666666666667</v>
+        <v>1.270833333333333</v>
       </c>
       <c r="G37" t="n">
         <v>1.0625</v>
@@ -1610,7 +1610,7 @@
         <v>1.125</v>
       </c>
       <c r="F38" t="n">
-        <v>3.5625</v>
+        <v>0.5</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1641,7 +1641,7 @@
         <v>1.689655172413793</v>
       </c>
       <c r="F39" t="n">
-        <v>5.586206896551724</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>1.241379310344828</v>
@@ -1672,7 +1672,7 @@
         <v>1.936170212765957</v>
       </c>
       <c r="F40" t="n">
-        <v>5.680851063829787</v>
+        <v>1.595744680851064</v>
       </c>
       <c r="G40" t="n">
         <v>1.042553191489362</v>
@@ -1703,7 +1703,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="F41" t="n">
-        <v>6.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
         <v>1.333333333333333</v>
@@ -1734,7 +1734,7 @@
         <v>-10</v>
       </c>
       <c r="F42" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
         <v>5</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>7.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1796,7 +1796,7 @@
         <v>-6</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>4</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="G45" t="n">
         <v>1.090909090909091</v>
@@ -1858,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G46" t="n">
         <v>9</v>
@@ -1889,7 +1889,7 @@
         <v>-5</v>
       </c>
       <c r="F47" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -1920,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="G49" t="n">
         <v>1.25</v>
@@ -1982,7 +1982,7 @@
         <v>1.5</v>
       </c>
       <c r="F50" t="n">
-        <v>5.055555555555555</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="G50" t="n">
         <v>1.111111111111111</v>
@@ -2013,7 +2013,7 @@
         <v>3.666666666666667</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2044,7 +2044,7 @@
         <v>1.090909090909091</v>
       </c>
       <c r="F52" t="n">
-        <v>7.090909090909091</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="G52" t="n">
         <v>1.181818181818182</v>
@@ -2075,7 +2075,7 @@
         <v>-2.5</v>
       </c>
       <c r="F53" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2106,7 +2106,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="F54" t="n">
-        <v>5.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G55" t="n">
         <v>9</v>
@@ -2168,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="G56" t="n">
         <v>1.5</v>
@@ -2230,7 +2230,7 @@
         <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>3.5</v>
+        <v>0.875</v>
       </c>
       <c r="G58" t="n">
         <v>1.25</v>
@@ -2261,7 +2261,7 @@
         <v>0.75</v>
       </c>
       <c r="F59" t="n">
-        <v>4.75</v>
+        <v>1.125</v>
       </c>
       <c r="G59" t="n">
         <v>1.125</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G60" t="n">
         <v>9</v>
@@ -2323,7 +2323,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="F61" t="n">
-        <v>10.66666666666667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -2385,7 +2385,7 @@
         <v>-11</v>
       </c>
       <c r="F63" t="n">
-        <v>4.666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G63" t="n">
         <v>1.666666666666667</v>
@@ -2416,7 +2416,7 @@
         <v>1.714285714285714</v>
       </c>
       <c r="F64" t="n">
-        <v>1.714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>-3.5</v>
       </c>
       <c r="F65" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="G65" t="n">
         <v>1.5</v>
@@ -2478,7 +2478,7 @@
         <v>5</v>
       </c>
       <c r="F66" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2509,7 +2509,7 @@
         <v>-3</v>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         <v>2.428571428571428</v>
       </c>
       <c r="F68" t="n">
-        <v>4.285714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G68" t="n">
         <v>1.142857142857143</v>
@@ -2571,7 +2571,7 @@
         <v>1.428571428571429</v>
       </c>
       <c r="F69" t="n">
-        <v>4.142857142857143</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2602,7 +2602,7 @@
         <v>0.8</v>
       </c>
       <c r="F70" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="G70" t="n">
         <v>1.4</v>
@@ -2633,7 +2633,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="F71" t="n">
-        <v>4.857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G71" t="n">
         <v>1.142857142857143</v>
@@ -2664,7 +2664,7 @@
         <v>-0.6666666666666666</v>
       </c>
       <c r="F72" t="n">
-        <v>3.333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G72" t="n">
         <v>1.333333333333333</v>
@@ -2695,7 +2695,7 @@
         <v>2.5</v>
       </c>
       <c r="F73" t="n">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2726,7 +2726,7 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="F74" t="n">
-        <v>4.818181818181818</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="G74" t="n">
         <v>1.363636363636364</v>
@@ -2757,7 +2757,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="F75" t="n">
-        <v>7.833333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G75" t="n">
         <v>1.333333333333333</v>
@@ -2788,7 +2788,7 @@
         <v>1.6</v>
       </c>
       <c r="F76" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -2819,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="F77" t="n">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -2850,7 +2850,7 @@
         <v>-3.666666666666667</v>
       </c>
       <c r="F78" t="n">
-        <v>3.666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G78" t="n">
         <v>1.333333333333333</v>
@@ -2881,7 +2881,7 @@
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
         <v>1.5</v>
@@ -2912,7 +2912,7 @@
         <v>-4</v>
       </c>
       <c r="F80" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
         <v>3.5</v>
@@ -2943,7 +2943,7 @@
         <v>-6</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -2974,7 +2974,7 @@
         <v>-1.5</v>
       </c>
       <c r="F82" t="n">
-        <v>4.666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3005,7 +3005,7 @@
         <v>-1</v>
       </c>
       <c r="F83" t="n">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="G83" t="n">
         <v>1.5</v>
@@ -3036,7 +3036,7 @@
         <v>-1</v>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3067,7 +3067,7 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G85" t="n">
         <v>9</v>
@@ -3098,7 +3098,7 @@
         <v>-11</v>
       </c>
       <c r="F86" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3129,7 +3129,7 @@
         <v>1.5</v>
       </c>
       <c r="F87" t="n">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="G87" t="n">
         <v>1.25</v>
@@ -3160,7 +3160,7 @@
         <v>2.5</v>
       </c>
       <c r="F88" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3191,7 +3191,7 @@
         <v>9.5</v>
       </c>
       <c r="F89" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3222,7 +3222,7 @@
         <v>-9</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3253,7 +3253,7 @@
         <v>0.2</v>
       </c>
       <c r="F91" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="G91" t="n">
         <v>1.2</v>
@@ -3284,7 +3284,7 @@
         <v>-0.5</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>1.5</v>
@@ -3315,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>11.33333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G93" t="n">
         <v>1.666666666666667</v>
@@ -3346,7 +3346,7 @@
         <v>-1.5</v>
       </c>
       <c r="F94" t="n">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3377,7 +3377,7 @@
         <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3439,7 +3439,7 @@
         <v>2.060606060606061</v>
       </c>
       <c r="F97" t="n">
-        <v>5.333333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G97" t="n">
         <v>1.03030303030303</v>
@@ -3470,7 +3470,7 @@
         <v>-1.8</v>
       </c>
       <c r="F98" t="n">
-        <v>5.2</v>
+        <v>1.2</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         <v>1.142857142857143</v>
       </c>
       <c r="F99" t="n">
-        <v>4.857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G99" t="n">
         <v>1.285714285714286</v>
@@ -3532,7 +3532,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="F100" t="n">
-        <v>5.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3563,7 +3563,7 @@
         <v>-12.33333333333333</v>
       </c>
       <c r="F101" t="n">
-        <v>1.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3594,7 +3594,7 @@
         <v>0.5</v>
       </c>
       <c r="F102" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
         <v>1.333333333333333</v>
@@ -3625,7 +3625,7 @@
         <v>1.909090909090909</v>
       </c>
       <c r="F103" t="n">
-        <v>4.272727272727272</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G103" t="n">
         <v>1.363636363636364</v>
@@ -3656,7 +3656,7 @@
         <v>1.649122807017544</v>
       </c>
       <c r="F104" t="n">
-        <v>5.789473684210527</v>
+        <v>1.701754385964912</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3687,7 +3687,7 @@
         <v>0.75</v>
       </c>
       <c r="F105" t="n">
-        <v>4.75</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
         <v>1.125</v>
@@ -3718,7 +3718,7 @@
         <v>1.5</v>
       </c>
       <c r="F106" t="n">
-        <v>5.625</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
         <v>1.25</v>
@@ -3749,7 +3749,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="F107" t="n">
-        <v>4.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G107" t="n">
         <v>1.166666666666667</v>
@@ -3780,7 +3780,7 @@
         <v>2.0625</v>
       </c>
       <c r="F108" t="n">
-        <v>4.375</v>
+        <v>1.0625</v>
       </c>
       <c r="G108" t="n">
         <v>1.25</v>
@@ -3811,7 +3811,7 @@
         <v>-1.888888888888889</v>
       </c>
       <c r="F109" t="n">
-        <v>4.555555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G109" t="n">
         <v>1.111111111111111</v>
@@ -3842,7 +3842,7 @@
         <v>1.454545454545455</v>
       </c>
       <c r="F110" t="n">
-        <v>5.636363636363637</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="G110" t="n">
         <v>1.272727272727273</v>
@@ -3873,7 +3873,7 @@
         <v>4</v>
       </c>
       <c r="F111" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="G111" t="n">
         <v>9</v>
@@ -3904,7 +3904,7 @@
         <v>3.6</v>
       </c>
       <c r="F112" t="n">
-        <v>6.6</v>
+        <v>2</v>
       </c>
       <c r="G112" t="n">
         <v>1.4</v>
@@ -3935,7 +3935,7 @@
         <v>2.07843137254902</v>
       </c>
       <c r="F113" t="n">
-        <v>4.607843137254902</v>
+        <v>0.9803921568627451</v>
       </c>
       <c r="G113" t="n">
         <v>1.058823529411765</v>
@@ -3966,7 +3966,7 @@
         <v>3.714285714285714</v>
       </c>
       <c r="F114" t="n">
-        <v>4.428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -3997,7 +3997,7 @@
         <v>0.5</v>
       </c>
       <c r="F115" t="n">
-        <v>3.25</v>
+        <v>0.75</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4028,7 +4028,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="F116" t="n">
-        <v>6</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="G116" t="n">
         <v>1.166666666666667</v>
@@ -4059,7 +4059,7 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="F117" t="n">
-        <v>4</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>4</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -4121,7 +4121,7 @@
         <v>-0.5</v>
       </c>
       <c r="F119" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4152,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G120" t="n">
         <v>9</v>
@@ -4183,7 +4183,7 @@
         <v>1.027777777777778</v>
       </c>
       <c r="F121" t="n">
-        <v>4.583333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G121" t="n">
         <v>1.083333333333333</v>
@@ -4214,7 +4214,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="F122" t="n">
-        <v>4.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4276,7 +4276,7 @@
         <v>3</v>
       </c>
       <c r="F124" t="n">
-        <v>4.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
         <v>1.333333333333333</v>
@@ -4307,7 +4307,7 @@
         <v>7.5</v>
       </c>
       <c r="F125" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G125" t="n">
         <v>6.5</v>
@@ -4338,7 +4338,7 @@
         <v>0.8</v>
       </c>
       <c r="F126" t="n">
-        <v>8.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="G126" t="n">
         <v>1.6</v>
@@ -4369,7 +4369,7 @@
         <v>-1.75</v>
       </c>
       <c r="F127" t="n">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="G127" t="n">
         <v>1.25</v>
@@ -4400,7 +4400,7 @@
         <v>2</v>
       </c>
       <c r="F128" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G128" t="n">
         <v>1.5</v>
@@ -4431,7 +4431,7 @@
         <v>-1</v>
       </c>
       <c r="F129" t="n">
-        <v>7.75</v>
+        <v>2</v>
       </c>
       <c r="G129" t="n">
         <v>1.25</v>
@@ -4462,7 +4462,7 @@
         <v>1.181818181818182</v>
       </c>
       <c r="F130" t="n">
-        <v>3.909090909090909</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4493,7 +4493,7 @@
         <v>-1.25</v>
       </c>
       <c r="F131" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4524,7 +4524,7 @@
         <v>1.222222222222222</v>
       </c>
       <c r="F132" t="n">
-        <v>6.222222222222222</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G132" t="n">
         <v>1.555555555555556</v>
@@ -4555,7 +4555,7 @@
         <v>2.5</v>
       </c>
       <c r="F133" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="G133" t="n">
         <v>1.1</v>
@@ -4586,7 +4586,7 @@
         <v>4</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -4617,7 +4617,7 @@
         <v>2</v>
       </c>
       <c r="F135" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G135" t="n">
         <v>9</v>
@@ -4648,7 +4648,7 @@
         <v>-14</v>
       </c>
       <c r="F136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -4679,7 +4679,7 @@
         <v>-1</v>
       </c>
       <c r="F137" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="G137" t="n">
         <v>1.2</v>
@@ -4710,7 +4710,7 @@
         <v>-0.5</v>
       </c>
       <c r="F138" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="G138" t="n">
         <v>1.25</v>
@@ -4741,7 +4741,7 @@
         <v>-0.1875</v>
       </c>
       <c r="F139" t="n">
-        <v>5.375</v>
+        <v>1.4375</v>
       </c>
       <c r="G139" t="n">
         <v>1.1875</v>
@@ -4803,7 +4803,7 @@
         <v>-1.454545454545455</v>
       </c>
       <c r="F141" t="n">
-        <v>5.909090909090909</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="G141" t="n">
         <v>1.636363636363636</v>
@@ -4834,7 +4834,7 @@
         <v>1.888888888888889</v>
       </c>
       <c r="F142" t="n">
-        <v>7</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="G142" t="n">
         <v>1.111111111111111</v>
@@ -4865,7 +4865,7 @@
         <v>6</v>
       </c>
       <c r="F143" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G143" t="n">
         <v>9</v>
@@ -4896,7 +4896,7 @@
         <v>-0.6666666666666666</v>
       </c>
       <c r="F144" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -4927,7 +4927,7 @@
         <v>5.666666666666667</v>
       </c>
       <c r="F145" t="n">
-        <v>33</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="G145" t="n">
         <v>9</v>
@@ -4958,7 +4958,7 @@
         <v>-1.428571428571429</v>
       </c>
       <c r="F146" t="n">
-        <v>4.857142857142857</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -4989,7 +4989,7 @@
         <v>-0.3333333333333333</v>
       </c>
       <c r="F147" t="n">
-        <v>5.666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5020,7 +5020,7 @@
         <v>11</v>
       </c>
       <c r="F148" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5051,7 +5051,7 @@
         <v>2.6</v>
       </c>
       <c r="F149" t="n">
-        <v>4.733333333333333</v>
+        <v>1.2</v>
       </c>
       <c r="G149" t="n">
         <v>1.133333333333333</v>
@@ -5082,7 +5082,7 @@
         <v>-13</v>
       </c>
       <c r="F150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5113,7 +5113,7 @@
         <v>-4</v>
       </c>
       <c r="F151" t="n">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -5144,7 +5144,7 @@
         <v>8.5</v>
       </c>
       <c r="F152" t="n">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="G152" t="n">
         <v>2.5</v>
@@ -5175,7 +5175,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="F153" t="n">
-        <v>4.733333333333333</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="G153" t="n">
         <v>1.066666666666667</v>
@@ -5206,7 +5206,7 @@
         <v>1.818181818181818</v>
       </c>
       <c r="F154" t="n">
-        <v>4.545454545454546</v>
+        <v>1.272727272727273</v>
       </c>
       <c r="G154" t="n">
         <v>1.090909090909091</v>
@@ -5237,7 +5237,7 @@
         <v>3.076923076923077</v>
       </c>
       <c r="F155" t="n">
-        <v>6.076923076923077</v>
+        <v>1.692307692307692</v>
       </c>
       <c r="G155" t="n">
         <v>1.230769230769231</v>
@@ -5268,7 +5268,7 @@
         <v>2</v>
       </c>
       <c r="F156" t="n">
-        <v>6.75</v>
+        <v>1.5</v>
       </c>
       <c r="G156" t="n">
         <v>1.25</v>
@@ -5299,7 +5299,7 @@
         <v>-2.333333333333333</v>
       </c>
       <c r="F157" t="n">
-        <v>7</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5330,7 +5330,7 @@
         <v>13</v>
       </c>
       <c r="F158" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G158" t="n">
         <v>7</v>
@@ -5361,7 +5361,7 @@
         <v>1.244444444444444</v>
       </c>
       <c r="F159" t="n">
-        <v>5.222222222222222</v>
+        <v>1.311111111111111</v>
       </c>
       <c r="G159" t="n">
         <v>1.088888888888889</v>
@@ -5392,7 +5392,7 @@
         <v>2.714285714285714</v>
       </c>
       <c r="F160" t="n">
-        <v>4.571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G160" t="n">
         <v>1.142857142857143</v>
@@ -5423,7 +5423,7 @@
         <v>2</v>
       </c>
       <c r="F161" t="n">
-        <v>6.444444444444445</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="G161" t="n">
         <v>1.222222222222222</v>
@@ -5454,7 +5454,7 @@
         <v>-9</v>
       </c>
       <c r="F162" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -5485,7 +5485,7 @@
         <v>-7</v>
       </c>
       <c r="F163" t="n">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="G163" t="n">
         <v>1.5</v>
@@ -5516,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G164" t="n">
         <v>1.333333333333333</v>
@@ -5547,7 +5547,7 @@
         <v>10</v>
       </c>
       <c r="F165" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
@@ -5578,7 +5578,7 @@
         <v>6.5</v>
       </c>
       <c r="F166" t="n">
-        <v>11.75</v>
+        <v>2.25</v>
       </c>
       <c r="G166" t="n">
         <v>3.5</v>
@@ -5609,7 +5609,7 @@
         <v>5.25</v>
       </c>
       <c r="F167" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -5640,7 +5640,7 @@
         <v>-1</v>
       </c>
       <c r="F168" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -5671,7 +5671,7 @@
         <v>-5</v>
       </c>
       <c r="F169" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="F171" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G171" t="n">
         <v>1.5</v>
@@ -5764,7 +5764,7 @@
         <v>1.269230769230769</v>
       </c>
       <c r="F172" t="n">
-        <v>4.5</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -5795,7 +5795,7 @@
         <v>3</v>
       </c>
       <c r="F173" t="n">
-        <v>5.666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -5826,7 +5826,7 @@
         <v>1.1875</v>
       </c>
       <c r="F174" t="n">
-        <v>4.75</v>
+        <v>1.0625</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -5857,7 +5857,7 @@
         <v>0.2</v>
       </c>
       <c r="F175" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
         <v>1.2</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>4.8</v>
+        <v>1.4</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -5919,7 +5919,7 @@
         <v>-0.5</v>
       </c>
       <c r="F177" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -5950,7 +5950,7 @@
         <v>-1.5</v>
       </c>
       <c r="F178" t="n">
-        <v>5.166666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G178" t="n">
         <v>1.166666666666667</v>
@@ -5981,7 +5981,7 @@
         <v>2.5</v>
       </c>
       <c r="F179" t="n">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="G179" t="n">
         <v>1.5</v>
@@ -6012,7 +6012,7 @@
         <v>-1.75</v>
       </c>
       <c r="F180" t="n">
-        <v>4.75</v>
+        <v>0.75</v>
       </c>
       <c r="G180" t="n">
         <v>1.25</v>
@@ -6043,7 +6043,7 @@
         <v>3.75</v>
       </c>
       <c r="F181" t="n">
-        <v>4.75</v>
+        <v>1</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6074,7 +6074,7 @@
         <v>-6.333333333333333</v>
       </c>
       <c r="F182" t="n">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6105,7 +6105,7 @@
         <v>-4</v>
       </c>
       <c r="F183" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6136,7 +6136,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="F184" t="n">
-        <v>5.25</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G184" t="n">
         <v>1.25</v>
@@ -6167,7 +6167,7 @@
         <v>0.7368421052631579</v>
       </c>
       <c r="F185" t="n">
-        <v>5.210526315789473</v>
+        <v>1</v>
       </c>
       <c r="G185" t="n">
         <v>1.315789473684211</v>
@@ -6198,7 +6198,7 @@
         <v>-4</v>
       </c>
       <c r="F186" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="G186" t="n">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="F187" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
         <v>1.666666666666667</v>
@@ -6260,7 +6260,7 @@
         <v>-4</v>
       </c>
       <c r="F188" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6291,7 +6291,7 @@
         <v>1.482758620689655</v>
       </c>
       <c r="F189" t="n">
-        <v>5.103448275862069</v>
+        <v>1.172413793103448</v>
       </c>
       <c r="G189" t="n">
         <v>1.068965517241379</v>
@@ -6322,7 +6322,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="F190" t="n">
-        <v>5.466666666666667</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="G190" t="n">
         <v>1.133333333333333</v>
@@ -6353,7 +6353,7 @@
         <v>3.5</v>
       </c>
       <c r="F191" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G191" t="n">
         <v>9</v>
@@ -6384,7 +6384,7 @@
         <v>-0.1538461538461539</v>
       </c>
       <c r="F192" t="n">
-        <v>4.846153846153846</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="G192" t="n">
         <v>1.230769230769231</v>
@@ -6415,7 +6415,7 @@
         <v>7</v>
       </c>
       <c r="F193" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -6446,7 +6446,7 @@
         <v>9</v>
       </c>
       <c r="F194" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -6477,7 +6477,7 @@
         <v>2</v>
       </c>
       <c r="F195" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="G195" t="n">
         <v>1.2</v>
@@ -6508,7 +6508,7 @@
         <v>2.166666666666667</v>
       </c>
       <c r="F196" t="n">
-        <v>7.111111111111111</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="G196" t="n">
         <v>1.5</v>
@@ -6539,7 +6539,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="F197" t="n">
-        <v>4.833333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G197" t="n">
         <v>1.166666666666667</v>
@@ -6570,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>5.083333333333333</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="G198" t="n">
         <v>1.166666666666667</v>
@@ -6601,7 +6601,7 @@
         <v>5.5</v>
       </c>
       <c r="F199" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -6632,7 +6632,7 @@
         <v>-0.25</v>
       </c>
       <c r="F200" t="n">
-        <v>5.375</v>
+        <v>1.625</v>
       </c>
       <c r="G200" t="n">
         <v>1.375</v>
@@ -6663,7 +6663,7 @@
         <v>-10</v>
       </c>
       <c r="F201" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -6694,7 +6694,7 @@
         <v>-3</v>
       </c>
       <c r="F202" t="n">
-        <v>6.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G202" t="n">
         <v>1.666666666666667</v>
@@ -6725,7 +6725,7 @@
         <v>-5</v>
       </c>
       <c r="F203" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G203" t="n">
         <v>5</v>
@@ -6756,7 +6756,7 @@
         <v>-0.4285714285714285</v>
       </c>
       <c r="F204" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G204" t="n">
         <v>1.285714285714286</v>
@@ -6787,7 +6787,7 @@
         <v>1.882352941176471</v>
       </c>
       <c r="F205" t="n">
-        <v>5.117647058823529</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="G205" t="n">
         <v>1.088235294117647</v>
@@ -6818,7 +6818,7 @@
         <v>1.352941176470588</v>
       </c>
       <c r="F206" t="n">
-        <v>5.529411764705882</v>
+        <v>1.117647058823529</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -6849,7 +6849,7 @@
         <v>3.272727272727273</v>
       </c>
       <c r="F207" t="n">
-        <v>6.181818181818182</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="G207" t="n">
         <v>1.272727272727273</v>
@@ -6880,7 +6880,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F208" t="n">
-        <v>3</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="G209" t="n">
         <v>5</v>
@@ -6942,7 +6942,7 @@
         <v>2</v>
       </c>
       <c r="F210" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="G210" t="n">
         <v>2.5</v>
@@ -6973,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7004,7 +7004,7 @@
         <v>3</v>
       </c>
       <c r="F212" t="n">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="G212" t="n">
         <v>5</v>
@@ -7035,7 +7035,7 @@
         <v>1.4</v>
       </c>
       <c r="F213" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7066,7 +7066,7 @@
         <v>-4.5</v>
       </c>
       <c r="F214" t="n">
-        <v>5.125</v>
+        <v>1.25</v>
       </c>
       <c r="G214" t="n">
         <v>1.25</v>
@@ -7097,7 +7097,7 @@
         <v>9</v>
       </c>
       <c r="F215" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="G215" t="n">
         <v>9</v>
@@ -7128,7 +7128,7 @@
         <v>1.052631578947368</v>
       </c>
       <c r="F216" t="n">
-        <v>5.052631578947368</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="G216" t="n">
         <v>1.052631578947368</v>
@@ -7159,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="F217" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="G217" t="n">
         <v>9</v>
@@ -7190,7 +7190,7 @@
         <v>5</v>
       </c>
       <c r="F218" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -7221,7 +7221,7 @@
         <v>-7</v>
       </c>
       <c r="F219" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -7252,7 +7252,7 @@
         <v>2</v>
       </c>
       <c r="F220" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G220" t="n">
         <v>9</v>
@@ -7283,7 +7283,7 @@
         <v>-1.2</v>
       </c>
       <c r="F221" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -7314,7 +7314,7 @@
         <v>-4.5</v>
       </c>
       <c r="F222" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G222" t="n">
         <v>1.5</v>
@@ -7345,7 +7345,7 @@
         <v>1.75</v>
       </c>
       <c r="F223" t="n">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="G223" t="n">
         <v>1.25</v>
@@ -7376,7 +7376,7 @@
         <v>2.095238095238095</v>
       </c>
       <c r="F224" t="n">
-        <v>4.857142857142857</v>
+        <v>1.238095238095238</v>
       </c>
       <c r="G224" t="n">
         <v>1.095238095238095</v>
@@ -7407,7 +7407,7 @@
         <v>1.071428571428571</v>
       </c>
       <c r="F225" t="n">
-        <v>5.428571428571429</v>
+        <v>1.5</v>
       </c>
       <c r="G225" t="n">
         <v>1.428571428571429</v>
@@ -7438,7 +7438,7 @@
         <v>-0.2</v>
       </c>
       <c r="F226" t="n">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>3</v>
       </c>
       <c r="F227" t="n">
-        <v>5.75</v>
+        <v>1</v>
       </c>
       <c r="G227" t="n">
         <v>1.25</v>
@@ -7500,7 +7500,7 @@
         <v>6.5</v>
       </c>
       <c r="F228" t="n">
-        <v>18.5</v>
+        <v>3.5</v>
       </c>
       <c r="G228" t="n">
         <v>6</v>
@@ -7531,7 +7531,7 @@
         <v>4</v>
       </c>
       <c r="F229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -7562,7 +7562,7 @@
         <v>-2.857142857142857</v>
       </c>
       <c r="F230" t="n">
-        <v>5.571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G230" t="n">
         <v>1.142857142857143</v>
@@ -7593,7 +7593,7 @@
         <v>-2</v>
       </c>
       <c r="F231" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -7624,7 +7624,7 @@
         <v>-0.375</v>
       </c>
       <c r="F232" t="n">
-        <v>7.375</v>
+        <v>1.125</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -7655,7 +7655,7 @@
         <v>2.615384615384615</v>
       </c>
       <c r="F233" t="n">
-        <v>4</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G233" t="n">
         <v>1.153846153846154</v>
@@ -7686,7 +7686,7 @@
         <v>-5</v>
       </c>
       <c r="F234" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -7717,7 +7717,7 @@
         <v>4.4</v>
       </c>
       <c r="F235" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -7748,7 +7748,7 @@
         <v>-5</v>
       </c>
       <c r="F236" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -7779,7 +7779,7 @@
         <v>1.636363636363636</v>
       </c>
       <c r="F237" t="n">
-        <v>6.054545454545455</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -7810,7 +7810,7 @@
         <v>3</v>
       </c>
       <c r="F238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -7841,7 +7841,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="F239" t="n">
-        <v>4.833333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G239" t="n">
         <v>1.5</v>
@@ -7872,7 +7872,7 @@
         <v>-3.75</v>
       </c>
       <c r="F240" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -7903,7 +7903,7 @@
         <v>1.472222222222222</v>
       </c>
       <c r="F241" t="n">
-        <v>4.75</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G241" t="n">
         <v>1.083333333333333</v>
@@ -7934,7 +7934,7 @@
         <v>-0.5</v>
       </c>
       <c r="F242" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -7996,7 +7996,7 @@
         <v>-1.75</v>
       </c>
       <c r="F244" t="n">
-        <v>3.75</v>
+        <v>0.875</v>
       </c>
       <c r="G244" t="n">
         <v>1.125</v>
@@ -8027,7 +8027,7 @@
         <v>7</v>
       </c>
       <c r="F245" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8058,7 +8058,7 @@
         <v>-9.5</v>
       </c>
       <c r="F246" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G246" t="n">
         <v>1.5</v>
@@ -8089,7 +8089,7 @@
         <v>-1</v>
       </c>
       <c r="F247" t="n">
-        <v>9.333333333333334</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="G247" t="n">
         <v>2.333333333333333</v>
@@ -8120,7 +8120,7 @@
         <v>2</v>
       </c>
       <c r="F248" t="n">
-        <v>5</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="G248" t="n">
         <v>1.357142857142857</v>
@@ -8151,7 +8151,7 @@
         <v>-4</v>
       </c>
       <c r="F249" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -8182,7 +8182,7 @@
         <v>-3.75</v>
       </c>
       <c r="F250" t="n">
-        <v>7.25</v>
+        <v>1.5</v>
       </c>
       <c r="G250" t="n">
         <v>1.5</v>
@@ -8213,7 +8213,7 @@
         <v>2.5</v>
       </c>
       <c r="F251" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G251" t="n">
         <v>1.5</v>
@@ -8244,7 +8244,7 @@
         <v>1.111111111111111</v>
       </c>
       <c r="F252" t="n">
-        <v>3.666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G252" t="n">
         <v>1.222222222222222</v>
@@ -8275,7 +8275,7 @@
         <v>1.391304347826087</v>
       </c>
       <c r="F253" t="n">
-        <v>5.130434782608695</v>
+        <v>1.304347826086957</v>
       </c>
       <c r="G253" t="n">
         <v>1.173913043478261</v>
@@ -8306,7 +8306,7 @@
         <v>5</v>
       </c>
       <c r="F254" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G254" t="n">
         <v>9</v>
@@ -8337,7 +8337,7 @@
         <v>2.035087719298246</v>
       </c>
       <c r="F255" t="n">
-        <v>5.649122807017544</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="G255" t="n">
         <v>1.175438596491228</v>
@@ -8368,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>6.285714285714286</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="G256" t="n">
         <v>1.142857142857143</v>
@@ -8399,7 +8399,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="F257" t="n">
-        <v>10.33333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="G257" t="n">
         <v>1.666666666666667</v>
@@ -8430,7 +8430,7 @@
         <v>-2</v>
       </c>
       <c r="F258" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -8461,7 +8461,7 @@
         <v>5.333333333333333</v>
       </c>
       <c r="F259" t="n">
-        <v>5.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="F260" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -8523,7 +8523,7 @@
         <v>3.333333333333333</v>
       </c>
       <c r="F261" t="n">
-        <v>9.666666666666666</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G261" t="n">
         <v>1.666666666666667</v>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="F262" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="G262" t="n">
         <v>1.5</v>
@@ -8585,7 +8585,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="F263" t="n">
-        <v>3.666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="F264" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -8647,7 +8647,7 @@
         <v>-0.2857142857142857</v>
       </c>
       <c r="F265" t="n">
-        <v>3.428571428571428</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -8678,7 +8678,7 @@
         <v>2.8</v>
       </c>
       <c r="F266" t="n">
-        <v>6.4</v>
+        <v>1.4</v>
       </c>
       <c r="G266" t="n">
         <v>1.4</v>
@@ -8709,7 +8709,7 @@
         <v>-13</v>
       </c>
       <c r="F267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -8740,7 +8740,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="F268" t="n">
-        <v>4.818181818181818</v>
+        <v>1.227272727272727</v>
       </c>
       <c r="G268" t="n">
         <v>1.136363636363636</v>
@@ -8771,7 +8771,7 @@
         <v>0.375</v>
       </c>
       <c r="F269" t="n">
-        <v>6.5</v>
+        <v>1.375</v>
       </c>
       <c r="G269" t="n">
         <v>1.375</v>
@@ -8802,7 +8802,7 @@
         <v>8</v>
       </c>
       <c r="F270" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -8833,7 +8833,7 @@
         <v>-1.428571428571429</v>
       </c>
       <c r="F271" t="n">
-        <v>4.857142857142857</v>
+        <v>1</v>
       </c>
       <c r="G271" t="n">
         <v>1.142857142857143</v>
@@ -8864,7 +8864,7 @@
         <v>4</v>
       </c>
       <c r="F272" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G272" t="n">
         <v>3</v>
@@ -8895,7 +8895,7 @@
         <v>4</v>
       </c>
       <c r="F273" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G273" t="n">
         <v>9</v>
@@ -8926,7 +8926,7 @@
         <v>-2.5</v>
       </c>
       <c r="F274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G274" t="n">
         <v>1.5</v>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="F275" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -8988,7 +8988,7 @@
         <v>-0.5</v>
       </c>
       <c r="F276" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="G276" t="n">
         <v>1.25</v>
@@ -9019,7 +9019,7 @@
         <v>2</v>
       </c>
       <c r="F277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -9050,7 +9050,7 @@
         <v>-4</v>
       </c>
       <c r="F278" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -9081,7 +9081,7 @@
         <v>1.727272727272727</v>
       </c>
       <c r="F279" t="n">
-        <v>6.218181818181818</v>
+        <v>1.618181818181818</v>
       </c>
       <c r="G279" t="n">
         <v>1.254545454545455</v>
@@ -9112,7 +9112,7 @@
         <v>-3</v>
       </c>
       <c r="F280" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="G280" t="n">
         <v>3.5</v>
@@ -9143,7 +9143,7 @@
         <v>4.5</v>
       </c>
       <c r="F281" t="n">
-        <v>13</v>
+        <v>1.5</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -9174,7 +9174,7 @@
         <v>1.5</v>
       </c>
       <c r="F282" t="n">
-        <v>3</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -9205,7 +9205,7 @@
         <v>2.333333333333333</v>
       </c>
       <c r="F283" t="n">
-        <v>5.333333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -9236,7 +9236,7 @@
         <v>7</v>
       </c>
       <c r="F284" t="n">
-        <v>5.333333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -9267,7 +9267,7 @@
         <v>1.661290322580645</v>
       </c>
       <c r="F285" t="n">
-        <v>5.290322580645161</v>
+        <v>1.370967741935484</v>
       </c>
       <c r="G285" t="n">
         <v>1.096774193548387</v>
@@ -9298,7 +9298,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="F286" t="n">
-        <v>9.666666666666666</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="G286" t="n">
         <v>2.333333333333333</v>
@@ -9329,7 +9329,7 @@
         <v>-5</v>
       </c>
       <c r="F287" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -9360,7 +9360,7 @@
         <v>-2.666666666666667</v>
       </c>
       <c r="F288" t="n">
-        <v>6.333333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G288" t="n">
         <v>1.333333333333333</v>
@@ -9391,7 +9391,7 @@
         <v>-2.4</v>
       </c>
       <c r="F289" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -9422,7 +9422,7 @@
         <v>-1.4</v>
       </c>
       <c r="F290" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="F291" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -9484,7 +9484,7 @@
         <v>-2</v>
       </c>
       <c r="F292" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="G292" t="n">
         <v>1.5</v>
@@ -9515,7 +9515,7 @@
         <v>-2</v>
       </c>
       <c r="F293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -9546,7 +9546,7 @@
         <v>1.181818181818182</v>
       </c>
       <c r="F294" t="n">
-        <v>5.636363636363637</v>
+        <v>1.545454545454545</v>
       </c>
       <c r="G294" t="n">
         <v>1.090909090909091</v>
@@ -9577,7 +9577,7 @@
         <v>0.5</v>
       </c>
       <c r="F295" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -9608,7 +9608,7 @@
         <v>1.857142857142857</v>
       </c>
       <c r="F296" t="n">
-        <v>4</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="G296" t="n">
         <v>1.285714285714286</v>
@@ -9639,7 +9639,7 @@
         <v>4</v>
       </c>
       <c r="F297" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="G297" t="n">
         <v>9</v>
@@ -9670,7 +9670,7 @@
         <v>3.4</v>
       </c>
       <c r="F298" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -9701,7 +9701,7 @@
         <v>1.617021276595745</v>
       </c>
       <c r="F299" t="n">
-        <v>4.978723404255319</v>
+        <v>1.127659574468085</v>
       </c>
       <c r="G299" t="n">
         <v>1.063829787234043</v>
@@ -9732,7 +9732,7 @@
         <v>12</v>
       </c>
       <c r="F300" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -9763,7 +9763,7 @@
         <v>-5</v>
       </c>
       <c r="F301" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -9794,7 +9794,7 @@
         <v>1.783783783783784</v>
       </c>
       <c r="F302" t="n">
-        <v>6.135135135135135</v>
+        <v>1.72972972972973</v>
       </c>
       <c r="G302" t="n">
         <v>1.054054054054054</v>
@@ -9825,7 +9825,7 @@
         <v>0.25</v>
       </c>
       <c r="F303" t="n">
-        <v>17.5</v>
+        <v>4.5</v>
       </c>
       <c r="G303" t="n">
         <v>3.5</v>
@@ -9856,7 +9856,7 @@
         <v>2</v>
       </c>
       <c r="F304" t="n">
-        <v>12.66666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G304" t="n">
         <v>3.333333333333333</v>
@@ -9887,7 +9887,7 @@
         <v>-2.4</v>
       </c>
       <c r="F305" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="G305" t="n">
         <v>1.2</v>
@@ -9918,7 +9918,7 @@
         <v>8.75</v>
       </c>
       <c r="F306" t="n">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -9949,7 +9949,7 @@
         <v>1.3</v>
       </c>
       <c r="F307" t="n">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="G307" t="n">
         <v>1.3</v>
@@ -9980,7 +9980,7 @@
         <v>1</v>
       </c>
       <c r="F308" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="G308" t="n">
         <v>1.25</v>
@@ -10011,7 +10011,7 @@
         <v>2</v>
       </c>
       <c r="F309" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G309" t="n">
         <v>9</v>
@@ -10042,7 +10042,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F310" t="n">
-        <v>4.333333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -10073,7 +10073,7 @@
         <v>-6</v>
       </c>
       <c r="F311" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -10104,7 +10104,7 @@
         <v>-4</v>
       </c>
       <c r="F312" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -10135,7 +10135,7 @@
         <v>10</v>
       </c>
       <c r="F313" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G313" t="n">
         <v>1.5</v>
@@ -10166,7 +10166,7 @@
         <v>-6</v>
       </c>
       <c r="F314" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         <v>2</v>
       </c>
       <c r="F315" t="n">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -10228,7 +10228,7 @@
         <v>-6</v>
       </c>
       <c r="F316" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G316" t="n">
         <v>3</v>
@@ -10259,7 +10259,7 @@
         <v>-1</v>
       </c>
       <c r="F317" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -10290,7 +10290,7 @@
         <v>-2</v>
       </c>
       <c r="F318" t="n">
-        <v>5</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -10321,7 +10321,7 @@
         <v>-0.2</v>
       </c>
       <c r="F319" t="n">
-        <v>6.4</v>
+        <v>1.4</v>
       </c>
       <c r="G319" t="n">
         <v>1.6</v>
@@ -10352,7 +10352,7 @@
         <v>-1</v>
       </c>
       <c r="F320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -10383,7 +10383,7 @@
         <v>-2.666666666666667</v>
       </c>
       <c r="F321" t="n">
-        <v>4.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -10414,7 +10414,7 @@
         <v>4</v>
       </c>
       <c r="F322" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="G322" t="n">
         <v>1.5</v>
@@ -10445,7 +10445,7 @@
         <v>-0.3333333333333333</v>
       </c>
       <c r="F323" t="n">
-        <v>5.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G323" t="n">
         <v>1.166666666666667</v>
@@ -10476,7 +10476,7 @@
         <v>2</v>
       </c>
       <c r="F324" t="n">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -10507,7 +10507,7 @@
         <v>-4</v>
       </c>
       <c r="F325" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -10538,7 +10538,7 @@
         <v>1.4</v>
       </c>
       <c r="F326" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -10569,7 +10569,7 @@
         <v>-8</v>
       </c>
       <c r="F327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -10600,7 +10600,7 @@
         <v>-0.6</v>
       </c>
       <c r="F328" t="n">
-        <v>10.2</v>
+        <v>2</v>
       </c>
       <c r="G328" t="n">
         <v>1.8</v>
@@ -10631,7 +10631,7 @@
         <v>1.875</v>
       </c>
       <c r="F329" t="n">
-        <v>2.625</v>
+        <v>0.875</v>
       </c>
       <c r="G329" t="n">
         <v>1.25</v>
@@ -10662,7 +10662,7 @@
         <v>-3.25</v>
       </c>
       <c r="F330" t="n">
-        <v>9.25</v>
+        <v>2.5</v>
       </c>
       <c r="G330" t="n">
         <v>1.5</v>
@@ -10693,7 +10693,7 @@
         <v>4</v>
       </c>
       <c r="F331" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -10724,7 +10724,7 @@
         <v>-4.5</v>
       </c>
       <c r="F332" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G332" t="n">
         <v>1.5</v>
@@ -10755,7 +10755,7 @@
         <v>1.6</v>
       </c>
       <c r="F333" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="G333" t="n">
         <v>1.4</v>
@@ -10786,7 +10786,7 @@
         <v>-0.5</v>
       </c>
       <c r="F334" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -10817,7 +10817,7 @@
         <v>0.75</v>
       </c>
       <c r="F335" t="n">
-        <v>4.25</v>
+        <v>1.5</v>
       </c>
       <c r="G335" t="n">
         <v>1.25</v>
@@ -10848,7 +10848,7 @@
         <v>10</v>
       </c>
       <c r="F336" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G336" t="n">
         <v>1.5</v>
@@ -10879,7 +10879,7 @@
         <v>1.8</v>
       </c>
       <c r="F337" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="G337" t="n">
         <v>1.2</v>
@@ -10910,7 +10910,7 @@
         <v>-2</v>
       </c>
       <c r="F338" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -10941,7 +10941,7 @@
         <v>2.692307692307693</v>
       </c>
       <c r="F339" t="n">
-        <v>4.923076923076923</v>
+        <v>1.461538461538461</v>
       </c>
       <c r="G339" t="n">
         <v>1.461538461538461</v>
@@ -10972,7 +10972,7 @@
         <v>2.8</v>
       </c>
       <c r="F340" t="n">
-        <v>8</v>
+        <v>1.2</v>
       </c>
       <c r="G340" t="n">
         <v>1.2</v>
@@ -11003,7 +11003,7 @@
         <v>-2</v>
       </c>
       <c r="F341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -11034,7 +11034,7 @@
         <v>2</v>
       </c>
       <c r="F342" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G342" t="n">
         <v>7</v>
@@ -11065,7 +11065,7 @@
         <v>6</v>
       </c>
       <c r="F343" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G343" t="n">
         <v>9</v>
@@ -11096,7 +11096,7 @@
         <v>5</v>
       </c>
       <c r="F344" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G344" t="n">
         <v>1.5</v>
@@ -11127,7 +11127,7 @@
         <v>1.5</v>
       </c>
       <c r="F345" t="n">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="G345" t="n">
         <v>1.25</v>
@@ -11158,7 +11158,7 @@
         <v>-4</v>
       </c>
       <c r="F346" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G346" t="n">
         <v>1.5</v>
@@ -11189,7 +11189,7 @@
         <v>-3.4</v>
       </c>
       <c r="F347" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="G347" t="n">
         <v>1.2</v>
@@ -11220,7 +11220,7 @@
         <v>-4</v>
       </c>
       <c r="F348" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="G348" t="n">
         <v>1.5</v>
@@ -11251,7 +11251,7 @@
         <v>-12</v>
       </c>
       <c r="F349" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -11282,7 +11282,7 @@
         <v>6</v>
       </c>
       <c r="F350" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G350" t="n">
         <v>9</v>
@@ -11313,7 +11313,7 @@
         <v>1</v>
       </c>
       <c r="F351" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -11344,7 +11344,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="F352" t="n">
-        <v>4.666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -11375,7 +11375,7 @@
         <v>-3</v>
       </c>
       <c r="F353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -11406,7 +11406,7 @@
         <v>3.5</v>
       </c>
       <c r="F354" t="n">
-        <v>4.5</v>
+        <v>0.75</v>
       </c>
       <c r="G354" t="n">
         <v>1.75</v>
@@ -11437,7 +11437,7 @@
         <v>-10</v>
       </c>
       <c r="F355" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -11468,7 +11468,7 @@
         <v>0.2</v>
       </c>
       <c r="F356" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -11499,7 +11499,7 @@
         <v>-1.333333333333333</v>
       </c>
       <c r="F357" t="n">
-        <v>2.916666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G357" t="n">
         <v>1.083333333333333</v>
@@ -11530,7 +11530,7 @@
         <v>3</v>
       </c>
       <c r="F358" t="n">
-        <v>3.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -11561,7 +11561,7 @@
         <v>-9</v>
       </c>
       <c r="F359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="F360" t="n">
-        <v>6.666666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="G360" t="n">
         <v>1.166666666666667</v>
@@ -11623,7 +11623,7 @@
         <v>-3.25</v>
       </c>
       <c r="F361" t="n">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -11654,7 +11654,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="F362" t="n">
-        <v>4.444444444444445</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -11685,7 +11685,7 @@
         <v>-0.7272727272727273</v>
       </c>
       <c r="F363" t="n">
-        <v>5.363636363636363</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -11716,7 +11716,7 @@
         <v>-0.3333333333333333</v>
       </c>
       <c r="F364" t="n">
-        <v>6.833333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G364" t="n">
         <v>1.5</v>
@@ -11747,7 +11747,7 @@
         <v>-0.1111111111111111</v>
       </c>
       <c r="F365" t="n">
-        <v>3.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="G365" t="n">
         <v>1.222222222222222</v>
@@ -11778,7 +11778,7 @@
         <v>3.5</v>
       </c>
       <c r="F366" t="n">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="G366" t="n">
         <v>1.75</v>
@@ -11809,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="F367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -11840,7 +11840,7 @@
         <v>0.375</v>
       </c>
       <c r="F368" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="G368" t="n">
         <v>1.25</v>
@@ -11871,7 +11871,7 @@
         <v>1.693877551020408</v>
       </c>
       <c r="F369" t="n">
-        <v>3.918367346938775</v>
+        <v>1.020408163265306</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -11902,7 +11902,7 @@
         <v>2.714285714285714</v>
       </c>
       <c r="F370" t="n">
-        <v>7.142857142857143</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="G370" t="n">
         <v>1.428571428571429</v>
@@ -11933,7 +11933,7 @@
         <v>4</v>
       </c>
       <c r="F371" t="n">
-        <v>8.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G371" t="n">
         <v>1.5</v>
@@ -11964,7 +11964,7 @@
         <v>-3</v>
       </c>
       <c r="F372" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G372" t="n">
         <v>4</v>
@@ -11995,7 +11995,7 @@
         <v>3.5</v>
       </c>
       <c r="F373" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -12026,7 +12026,7 @@
         <v>6</v>
       </c>
       <c r="F374" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G374" t="n">
         <v>9</v>
@@ -12057,7 +12057,7 @@
         <v>3</v>
       </c>
       <c r="F375" t="n">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -12088,7 +12088,7 @@
         <v>9</v>
       </c>
       <c r="F376" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -12119,7 +12119,7 @@
         <v>-4</v>
       </c>
       <c r="F377" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -12150,7 +12150,7 @@
         <v>3.4</v>
       </c>
       <c r="F378" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -12181,7 +12181,7 @@
         <v>1.711538461538461</v>
       </c>
       <c r="F379" t="n">
-        <v>4.615384615384615</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G379" t="n">
         <v>1.019230769230769</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="F380" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -12243,7 +12243,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="F381" t="n">
-        <v>6</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -12274,7 +12274,7 @@
         <v>2.875</v>
       </c>
       <c r="F382" t="n">
-        <v>4</v>
+        <v>0.875</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -12305,7 +12305,7 @@
         <v>2.5</v>
       </c>
       <c r="F383" t="n">
-        <v>33.5</v>
+        <v>7.5</v>
       </c>
       <c r="G383" t="n">
         <v>9</v>
@@ -12336,7 +12336,7 @@
         <v>1.4</v>
       </c>
       <c r="F384" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="G384" t="n">
         <v>1.2</v>
@@ -12367,7 +12367,7 @@
         <v>-0.3333333333333333</v>
       </c>
       <c r="F385" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="G385" t="n">
         <v>1.166666666666667</v>
@@ -12398,7 +12398,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F386" t="n">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         <v>-2.5</v>
       </c>
       <c r="F387" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="G387" t="n">
         <v>1.5</v>
@@ -12460,7 +12460,7 @@
         <v>3.25</v>
       </c>
       <c r="F388" t="n">
-        <v>11.75</v>
+        <v>2</v>
       </c>
       <c r="G388" t="n">
         <v>3</v>
@@ -12491,7 +12491,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="F389" t="n">
-        <v>6.727272727272728</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="G389" t="n">
         <v>1.272727272727273</v>
@@ -12522,7 +12522,7 @@
         <v>14</v>
       </c>
       <c r="F390" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G390" t="n">
         <v>3</v>
@@ -12553,7 +12553,7 @@
         <v>-3.25</v>
       </c>
       <c r="F391" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="G391" t="n">
         <v>1.5</v>
@@ -12584,7 +12584,7 @@
         <v>3</v>
       </c>
       <c r="F392" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -12615,7 +12615,7 @@
         <v>0.625</v>
       </c>
       <c r="F393" t="n">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -12646,7 +12646,7 @@
         <v>-4</v>
       </c>
       <c r="F394" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -12677,7 +12677,7 @@
         <v>-1</v>
       </c>
       <c r="F395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -12708,7 +12708,7 @@
         <v>0.5625</v>
       </c>
       <c r="F396" t="n">
-        <v>4.875</v>
+        <v>1</v>
       </c>
       <c r="G396" t="n">
         <v>1.1875</v>
@@ -12739,7 +12739,7 @@
         <v>8.5</v>
       </c>
       <c r="F397" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G397" t="n">
         <v>3.5</v>
@@ -12770,7 +12770,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="F398" t="n">
-        <v>5.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -12801,7 +12801,7 @@
         <v>7</v>
       </c>
       <c r="F399" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -12832,7 +12832,7 @@
         <v>-3.5</v>
       </c>
       <c r="F400" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -12863,7 +12863,7 @@
         <v>2</v>
       </c>
       <c r="F401" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G401" t="n">
         <v>1.5</v>
@@ -12894,7 +12894,7 @@
         <v>-0.75</v>
       </c>
       <c r="F402" t="n">
-        <v>4.5</v>
+        <v>0.75</v>
       </c>
       <c r="G402" t="n">
         <v>1.25</v>
@@ -12925,7 +12925,7 @@
         <v>4</v>
       </c>
       <c r="F403" t="n">
-        <v>45.5</v>
+        <v>12</v>
       </c>
       <c r="G403" t="n">
         <v>9</v>
@@ -12956,7 +12956,7 @@
         <v>8</v>
       </c>
       <c r="F404" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G404" t="n">
         <v>9</v>
@@ -12987,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="F405" t="n">
-        <v>6.5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -13018,7 +13018,7 @@
         <v>-1</v>
       </c>
       <c r="F406" t="n">
-        <v>12.5</v>
+        <v>2</v>
       </c>
       <c r="G406" t="n">
         <v>3</v>
@@ -13049,7 +13049,7 @@
         <v>-8</v>
       </c>
       <c r="F407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -13080,7 +13080,7 @@
         <v>2.5</v>
       </c>
       <c r="F408" t="n">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="G408" t="n">
         <v>1.5</v>
@@ -13111,7 +13111,7 @@
         <v>1.1</v>
       </c>
       <c r="F409" t="n">
-        <v>5.766666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G409" t="n">
         <v>1.066666666666667</v>
@@ -13142,7 +13142,7 @@
         <v>0.8</v>
       </c>
       <c r="F410" t="n">
-        <v>6.8</v>
+        <v>2</v>
       </c>
       <c r="G410" t="n">
         <v>1.8</v>
@@ -13173,7 +13173,7 @@
         <v>0</v>
       </c>
       <c r="F411" t="n">
-        <v>6.333333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G411" t="n">
         <v>1.333333333333333</v>
@@ -13204,7 +13204,7 @@
         <v>-2</v>
       </c>
       <c r="F412" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -13235,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="F413" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -13266,7 +13266,7 @@
         <v>-12</v>
       </c>
       <c r="F414" t="n">
-        <v>2.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -13297,7 +13297,7 @@
         <v>2</v>
       </c>
       <c r="F415" t="n">
-        <v>41</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="G415" t="n">
         <v>9</v>
@@ -13328,7 +13328,7 @@
         <v>-4</v>
       </c>
       <c r="F416" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -13359,7 +13359,7 @@
         <v>-0.8333333333333334</v>
       </c>
       <c r="F417" t="n">
-        <v>5.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="G417" t="n">
         <v>1.333333333333333</v>
@@ -13390,7 +13390,7 @@
         <v>-4</v>
       </c>
       <c r="F418" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="G418" t="n">
         <v>1.5</v>
@@ -13421,7 +13421,7 @@
         <v>4</v>
       </c>
       <c r="F419" t="n">
-        <v>7.6</v>
+        <v>1.8</v>
       </c>
       <c r="G419" t="n">
         <v>1.2</v>
@@ -13452,7 +13452,7 @@
         <v>3</v>
       </c>
       <c r="F420" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G420" t="n">
         <v>1.5</v>
@@ -13483,7 +13483,7 @@
         <v>-1</v>
       </c>
       <c r="F421" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -13514,7 +13514,7 @@
         <v>-1</v>
       </c>
       <c r="F422" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G422" t="n">
         <v>4</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="F423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -13576,7 +13576,7 @@
         <v>6</v>
       </c>
       <c r="F424" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -13607,7 +13607,7 @@
         <v>3.25</v>
       </c>
       <c r="F425" t="n">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -13638,7 +13638,7 @@
         <v>1.214285714285714</v>
       </c>
       <c r="F426" t="n">
-        <v>6.928571428571429</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="G426" t="n">
         <v>1.214285714285714</v>
@@ -13669,7 +13669,7 @@
         <v>4</v>
       </c>
       <c r="F427" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -13700,7 +13700,7 @@
         <v>-3</v>
       </c>
       <c r="F428" t="n">
-        <v>8.666666666666666</v>
+        <v>2</v>
       </c>
       <c r="G428" t="n">
         <v>1.333333333333333</v>
@@ -13731,7 +13731,7 @@
         <v>-0.4285714285714285</v>
       </c>
       <c r="F429" t="n">
-        <v>4.285714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -13762,7 +13762,7 @@
         <v>4</v>
       </c>
       <c r="F430" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -13793,7 +13793,7 @@
         <v>-0.3333333333333333</v>
       </c>
       <c r="F431" t="n">
-        <v>4.083333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G431" t="n">
         <v>1.166666666666667</v>
@@ -13824,7 +13824,7 @@
         <v>-0.1</v>
       </c>
       <c r="F432" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="G432" t="n">
         <v>1.1</v>
@@ -13855,7 +13855,7 @@
         <v>-6</v>
       </c>
       <c r="F433" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G433" t="n">
         <v>2</v>
@@ -13886,7 +13886,7 @@
         <v>1.25</v>
       </c>
       <c r="F434" t="n">
-        <v>6</v>
+        <v>1.125</v>
       </c>
       <c r="G434" t="n">
         <v>1.25</v>
@@ -13917,7 +13917,7 @@
         <v>2.6</v>
       </c>
       <c r="F435" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="G435" t="n">
         <v>1.4</v>
@@ -13948,7 +13948,7 @@
         <v>-7</v>
       </c>
       <c r="F436" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G436" t="n">
         <v>3</v>
@@ -13979,7 +13979,7 @@
         <v>5</v>
       </c>
       <c r="F437" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -14010,7 +14010,7 @@
         <v>-16</v>
       </c>
       <c r="F438" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -14041,7 +14041,7 @@
         <v>1.090909090909091</v>
       </c>
       <c r="F439" t="n">
-        <v>3.545454545454545</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="G439" t="n">
         <v>1.181818181818182</v>
@@ -14072,7 +14072,7 @@
         <v>-0.125</v>
       </c>
       <c r="F440" t="n">
-        <v>6.375</v>
+        <v>1.5</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -14103,7 +14103,7 @@
         <v>-8</v>
       </c>
       <c r="F441" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -14134,7 +14134,7 @@
         <v>-0.2222222222222222</v>
       </c>
       <c r="F442" t="n">
-        <v>3.666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G442" t="n">
         <v>1.111111111111111</v>
@@ -14165,7 +14165,7 @@
         <v>-3</v>
       </c>
       <c r="F443" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -14196,7 +14196,7 @@
         <v>3.5</v>
       </c>
       <c r="F444" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -14227,7 +14227,7 @@
         <v>2</v>
       </c>
       <c r="F445" t="n">
-        <v>8.666666666666666</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G445" t="n">
         <v>2</v>
@@ -14258,7 +14258,7 @@
         <v>2</v>
       </c>
       <c r="F446" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -14289,7 +14289,7 @@
         <v>-12</v>
       </c>
       <c r="F447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -14320,7 +14320,7 @@
         <v>-1.5</v>
       </c>
       <c r="F448" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="G448" t="n">
         <v>2</v>
@@ -14351,7 +14351,7 @@
         <v>-1</v>
       </c>
       <c r="F449" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -14382,7 +14382,7 @@
         <v>-0.25</v>
       </c>
       <c r="F450" t="n">
-        <v>5.25</v>
+        <v>1</v>
       </c>
       <c r="G450" t="n">
         <v>1.5</v>
@@ -14413,7 +14413,7 @@
         <v>0.5</v>
       </c>
       <c r="F451" t="n">
-        <v>5.75</v>
+        <v>1.25</v>
       </c>
       <c r="G451" t="n">
         <v>1.25</v>
@@ -14444,7 +14444,7 @@
         <v>-3.25</v>
       </c>
       <c r="F452" t="n">
-        <v>7.25</v>
+        <v>1.25</v>
       </c>
       <c r="G452" t="n">
         <v>1.25</v>
@@ -14475,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="F453" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -14506,7 +14506,7 @@
         <v>1.75</v>
       </c>
       <c r="F454" t="n">
-        <v>5.125</v>
+        <v>1.296875</v>
       </c>
       <c r="G454" t="n">
         <v>1.046875</v>
@@ -14537,7 +14537,7 @@
         <v>1.25</v>
       </c>
       <c r="F455" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -14568,7 +14568,7 @@
         <v>-2</v>
       </c>
       <c r="F456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -14599,7 +14599,7 @@
         <v>5.5</v>
       </c>
       <c r="F457" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -14630,7 +14630,7 @@
         <v>-2</v>
       </c>
       <c r="F458" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -14692,7 +14692,7 @@
         <v>-3</v>
       </c>
       <c r="F460" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -14723,7 +14723,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="F461" t="n">
-        <v>3.714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G461" t="n">
         <v>1.285714285714286</v>
@@ -14754,7 +14754,7 @@
         <v>1</v>
       </c>
       <c r="F462" t="n">
-        <v>6</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G462" t="n">
         <v>1.666666666666667</v>
@@ -14785,7 +14785,7 @@
         <v>-2</v>
       </c>
       <c r="F463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -14816,7 +14816,7 @@
         <v>-4.5</v>
       </c>
       <c r="F464" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G464" t="n">
         <v>2</v>
@@ -14847,7 +14847,7 @@
         <v>0.5</v>
       </c>
       <c r="F465" t="n">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="G465" t="n">
         <v>1.25</v>
@@ -14878,7 +14878,7 @@
         <v>1</v>
       </c>
       <c r="F466" t="n">
-        <v>5.142857142857143</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="G466" t="n">
         <v>1.428571428571429</v>
@@ -14909,7 +14909,7 @@
         <v>0</v>
       </c>
       <c r="F467" t="n">
-        <v>3.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="G467" t="n">
         <v>1.5</v>
@@ -14940,7 +14940,7 @@
         <v>-0.8</v>
       </c>
       <c r="F468" t="n">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -14971,7 +14971,7 @@
         <v>-2.5</v>
       </c>
       <c r="F469" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G469" t="n">
         <v>1.5</v>
@@ -15002,7 +15002,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F470" t="n">
-        <v>4</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G470" t="n">
         <v>1.666666666666667</v>
@@ -15033,7 +15033,7 @@
         <v>13</v>
       </c>
       <c r="F471" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G471" t="n">
         <v>2</v>
@@ -15064,7 +15064,7 @@
         <v>-1.8</v>
       </c>
       <c r="F472" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G472" t="n">
         <v>1.6</v>
@@ -15095,7 +15095,7 @@
         <v>1.428571428571429</v>
       </c>
       <c r="F473" t="n">
-        <v>6.571428571428571</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="G473" t="n">
         <v>1.285714285714286</v>
@@ -15126,7 +15126,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="F474" t="n">
-        <v>4</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -15157,7 +15157,7 @@
         <v>3.8</v>
       </c>
       <c r="F475" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="G475" t="n">
         <v>1.2</v>
@@ -15188,7 +15188,7 @@
         <v>4</v>
       </c>
       <c r="F476" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -15219,7 +15219,7 @@
         <v>1.787234042553191</v>
       </c>
       <c r="F477" t="n">
-        <v>5.021276595744681</v>
+        <v>1.148936170212766</v>
       </c>
       <c r="G477" t="n">
         <v>1.063829787234043</v>
@@ -15250,7 +15250,7 @@
         <v>1.888888888888889</v>
       </c>
       <c r="F478" t="n">
-        <v>7.333333333333333</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="G478" t="n">
         <v>1.777777777777778</v>
@@ -15281,7 +15281,7 @@
         <v>4.4</v>
       </c>
       <c r="F479" t="n">
-        <v>8.199999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="G479" t="n">
         <v>2</v>
@@ -15312,7 +15312,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="F480" t="n">
-        <v>3.666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -15343,7 +15343,7 @@
         <v>0.9473684210526315</v>
       </c>
       <c r="F481" t="n">
-        <v>4.684210526315789</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="G481" t="n">
         <v>1.105263157894737</v>
@@ -15374,7 +15374,7 @@
         <v>1</v>
       </c>
       <c r="F482" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="G482" t="n">
         <v>2.5</v>
@@ -15405,7 +15405,7 @@
         <v>6</v>
       </c>
       <c r="F483" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G483" t="n">
         <v>2</v>
@@ -15436,7 +15436,7 @@
         <v>-1</v>
       </c>
       <c r="F484" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="G484" t="n">
         <v>1.6</v>
@@ -15467,7 +15467,7 @@
         <v>-0.25</v>
       </c>
       <c r="F485" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -15498,7 +15498,7 @@
         <v>-0.8333333333333334</v>
       </c>
       <c r="F486" t="n">
-        <v>4.833333333333333</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="G486" t="n">
         <v>1.333333333333333</v>
@@ -15529,7 +15529,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="F487" t="n">
-        <v>3.96969696969697</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="G487" t="n">
         <v>1.03030303030303</v>
@@ -15560,7 +15560,7 @@
         <v>8</v>
       </c>
       <c r="F488" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G488" t="n">
         <v>9</v>
@@ -15591,7 +15591,7 @@
         <v>1.478260869565217</v>
       </c>
       <c r="F489" t="n">
-        <v>3.391304347826087</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="G489" t="n">
         <v>1.043478260869565</v>
@@ -15622,7 +15622,7 @@
         <v>0.7894736842105263</v>
       </c>
       <c r="F490" t="n">
-        <v>5.631578947368421</v>
+        <v>1.526315789473684</v>
       </c>
       <c r="G490" t="n">
         <v>1.157894736842105</v>
@@ -15653,7 +15653,7 @@
         <v>6.6</v>
       </c>
       <c r="F491" t="n">
-        <v>3.8</v>
+        <v>0.4</v>
       </c>
       <c r="G491" t="n">
         <v>1.4</v>
@@ -15684,7 +15684,7 @@
         <v>2.365853658536585</v>
       </c>
       <c r="F492" t="n">
-        <v>6.024390243902439</v>
+        <v>1.75609756097561</v>
       </c>
       <c r="G492" t="n">
         <v>1.121951219512195</v>
@@ -15715,7 +15715,7 @@
         <v>-2</v>
       </c>
       <c r="F493" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -15746,7 +15746,7 @@
         <v>-1.75</v>
       </c>
       <c r="F494" t="n">
-        <v>5.25</v>
+        <v>1.25</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -15777,7 +15777,7 @@
         <v>-14</v>
       </c>
       <c r="F495" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -15808,7 +15808,7 @@
         <v>0.75</v>
       </c>
       <c r="F496" t="n">
-        <v>4.625</v>
+        <v>0.8125</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -15839,7 +15839,7 @@
         <v>3</v>
       </c>
       <c r="F497" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G497" t="n">
         <v>5</v>
@@ -15870,7 +15870,7 @@
         <v>-2.333333333333333</v>
       </c>
       <c r="F498" t="n">
-        <v>3.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -15901,7 +15901,7 @@
         <v>-2.2</v>
       </c>
       <c r="F499" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="G499" t="n">
         <v>1.2</v>
@@ -15932,7 +15932,7 @@
         <v>4.666666666666667</v>
       </c>
       <c r="F500" t="n">
-        <v>4.333333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -15963,7 +15963,7 @@
         <v>-0.75</v>
       </c>
       <c r="F501" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -15994,7 +15994,7 @@
         <v>-10</v>
       </c>
       <c r="F502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -16025,7 +16025,7 @@
         <v>1.529411764705882</v>
       </c>
       <c r="F503" t="n">
-        <v>4.588235294117647</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="G503" t="n">
         <v>1.117647058823529</v>
@@ -16056,7 +16056,7 @@
         <v>-0.75</v>
       </c>
       <c r="F504" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G504" t="n">
         <v>1.5</v>
@@ -16087,7 +16087,7 @@
         <v>-0.6666666666666666</v>
       </c>
       <c r="F505" t="n">
-        <v>5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G505" t="n">
         <v>1.333333333333333</v>
@@ -16118,7 +16118,7 @@
         <v>3</v>
       </c>
       <c r="F506" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -16149,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="F507" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G507" t="n">
         <v>2</v>
@@ -16180,7 +16180,7 @@
         <v>8</v>
       </c>
       <c r="F508" t="n">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -16211,7 +16211,7 @@
         <v>4.5</v>
       </c>
       <c r="F509" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G509" t="n">
         <v>6.5</v>
@@ -16242,7 +16242,7 @@
         <v>2.625</v>
       </c>
       <c r="F510" t="n">
-        <v>4.125</v>
+        <v>0.875</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -16273,7 +16273,7 @@
         <v>1.083333333333333</v>
       </c>
       <c r="F511" t="n">
-        <v>7.666666666666667</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="G511" t="n">
         <v>1.583333333333333</v>
@@ -16304,7 +16304,7 @@
         <v>0.875</v>
       </c>
       <c r="F512" t="n">
-        <v>4.625</v>
+        <v>0.75</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -16335,7 +16335,7 @@
         <v>-3.333333333333333</v>
       </c>
       <c r="F513" t="n">
-        <v>6</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G513" t="n">
         <v>1.333333333333333</v>
@@ -16366,7 +16366,7 @@
         <v>-2.5</v>
       </c>
       <c r="F514" t="n">
-        <v>5.25</v>
+        <v>1</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -16397,7 +16397,7 @@
         <v>-1</v>
       </c>
       <c r="F515" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -16428,7 +16428,7 @@
         <v>-2</v>
       </c>
       <c r="F516" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -16459,7 +16459,7 @@
         <v>2.333333333333333</v>
       </c>
       <c r="F517" t="n">
-        <v>3.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -16490,7 +16490,7 @@
         <v>2.75</v>
       </c>
       <c r="F518" t="n">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="G518" t="n">
         <v>1.25</v>
@@ -16521,7 +16521,7 @@
         <v>-0.8125</v>
       </c>
       <c r="F519" t="n">
-        <v>5.5625</v>
+        <v>1.375</v>
       </c>
       <c r="G519" t="n">
         <v>1.125</v>
@@ -16552,7 +16552,7 @@
         <v>-13</v>
       </c>
       <c r="F520" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G520" t="n">
         <v>2</v>
@@ -16583,7 +16583,7 @@
         <v>1.5</v>
       </c>
       <c r="F521" t="n">
-        <v>21.5</v>
+        <v>5.5</v>
       </c>
       <c r="G521" t="n">
         <v>5</v>
@@ -16614,7 +16614,7 @@
         <v>-10</v>
       </c>
       <c r="F522" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G522" t="n">
         <v>2</v>
@@ -16645,7 +16645,7 @@
         <v>5</v>
       </c>
       <c r="F523" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -16676,7 +16676,7 @@
         <v>-12.5</v>
       </c>
       <c r="F524" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -16707,7 +16707,7 @@
         <v>-1.875</v>
       </c>
       <c r="F525" t="n">
-        <v>4.5</v>
+        <v>0.875</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -16738,7 +16738,7 @@
         <v>2</v>
       </c>
       <c r="F526" t="n">
-        <v>8.166666666666666</v>
+        <v>2</v>
       </c>
       <c r="G526" t="n">
         <v>1.166666666666667</v>
@@ -16769,7 +16769,7 @@
         <v>1.5</v>
       </c>
       <c r="F527" t="n">
-        <v>4.75</v>
+        <v>1.25</v>
       </c>
       <c r="G527" t="n">
         <v>1.25</v>
@@ -16800,7 +16800,7 @@
         <v>6</v>
       </c>
       <c r="F528" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G528" t="n">
         <v>2</v>
@@ -16831,7 +16831,7 @@
         <v>1.238095238095238</v>
       </c>
       <c r="F529" t="n">
-        <v>5.904761904761905</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G529" t="n">
         <v>1.19047619047619</v>
@@ -16862,7 +16862,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="F530" t="n">
-        <v>3.777777777777778</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G530" t="n">
         <v>1.333333333333333</v>
@@ -16893,7 +16893,7 @@
         <v>0</v>
       </c>
       <c r="F531" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -16924,7 +16924,7 @@
         <v>0.5</v>
       </c>
       <c r="F532" t="n">
-        <v>2.666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -16955,7 +16955,7 @@
         <v>2.4</v>
       </c>
       <c r="F533" t="n">
-        <v>6.4</v>
+        <v>1.4</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -16986,7 +16986,7 @@
         <v>7.166666666666667</v>
       </c>
       <c r="F534" t="n">
-        <v>5</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G534" t="n">
         <v>1.333333333333333</v>
@@ -17017,7 +17017,7 @@
         <v>-5.333333333333333</v>
       </c>
       <c r="F535" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G535" t="n">
         <v>1.666666666666667</v>
@@ -17048,7 +17048,7 @@
         <v>-1.25</v>
       </c>
       <c r="F536" t="n">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -17079,7 +17079,7 @@
         <v>1.307692307692308</v>
       </c>
       <c r="F537" t="n">
-        <v>7.076923076923077</v>
+        <v>1.846153846153846</v>
       </c>
       <c r="G537" t="n">
         <v>1.384615384615385</v>
@@ -17110,7 +17110,7 @@
         <v>-3.333333333333333</v>
       </c>
       <c r="F538" t="n">
-        <v>11.33333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="G538" t="n">
         <v>2</v>
@@ -17141,7 +17141,7 @@
         <v>-4</v>
       </c>
       <c r="F539" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G539" t="n">
         <v>5</v>
@@ -17172,7 +17172,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="F540" t="n">
-        <v>3.857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G540" t="n">
         <v>1.428571428571429</v>
@@ -17203,7 +17203,7 @@
         <v>-0.3333333333333333</v>
       </c>
       <c r="F541" t="n">
-        <v>5.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G541" t="n">
         <v>1.333333333333333</v>
@@ -17234,7 +17234,7 @@
         <v>1.675675675675676</v>
       </c>
       <c r="F542" t="n">
-        <v>5.027027027027027</v>
+        <v>1.27027027027027</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -17265,7 +17265,7 @@
         <v>3.25</v>
       </c>
       <c r="F543" t="n">
-        <v>4.75</v>
+        <v>1</v>
       </c>
       <c r="G543" t="n">
         <v>1.5</v>
@@ -17296,7 +17296,7 @@
         <v>0</v>
       </c>
       <c r="F544" t="n">
-        <v>3.857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -17327,7 +17327,7 @@
         <v>7</v>
       </c>
       <c r="F545" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G545" t="n">
         <v>3</v>
@@ -17358,7 +17358,7 @@
         <v>-4</v>
       </c>
       <c r="F546" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G546" t="n">
         <v>3</v>
@@ -17389,7 +17389,7 @@
         <v>4.333333333333333</v>
       </c>
       <c r="F547" t="n">
-        <v>6</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -17420,7 +17420,7 @@
         <v>3</v>
       </c>
       <c r="F548" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -17451,7 +17451,7 @@
         <v>-10</v>
       </c>
       <c r="F549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -17482,7 +17482,7 @@
         <v>-7</v>
       </c>
       <c r="F550" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G550" t="n">
         <v>4</v>
@@ -17513,7 +17513,7 @@
         <v>0.75</v>
       </c>
       <c r="F551" t="n">
-        <v>3.85</v>
+        <v>0.9</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -17544,7 +17544,7 @@
         <v>1.684210526315789</v>
       </c>
       <c r="F552" t="n">
-        <v>5.842105263157895</v>
+        <v>1.210526315789474</v>
       </c>
       <c r="G552" t="n">
         <v>1.078947368421053</v>
@@ -17575,7 +17575,7 @@
         <v>7</v>
       </c>
       <c r="F553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -17606,7 +17606,7 @@
         <v>-5</v>
       </c>
       <c r="F554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -17637,7 +17637,7 @@
         <v>3.285714285714286</v>
       </c>
       <c r="F555" t="n">
-        <v>5.714285714285714</v>
+        <v>1</v>
       </c>
       <c r="G555" t="n">
         <v>1.285714285714286</v>
@@ -17668,7 +17668,7 @@
         <v>-0.8</v>
       </c>
       <c r="F556" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="G556" t="n">
         <v>1.4</v>
@@ -17699,7 +17699,7 @@
         <v>2.454545454545455</v>
       </c>
       <c r="F557" t="n">
-        <v>2.818181818181818</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="G557" t="n">
         <v>1.181818181818182</v>
@@ -17730,7 +17730,7 @@
         <v>2</v>
       </c>
       <c r="F558" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -17761,7 +17761,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F559" t="n">
-        <v>4.611111111111111</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="G559" t="n">
         <v>1.111111111111111</v>
@@ -17792,7 +17792,7 @@
         <v>1.88</v>
       </c>
       <c r="F560" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="G560" t="n">
         <v>1.16</v>
@@ -17823,7 +17823,7 @@
         <v>-1.5</v>
       </c>
       <c r="F561" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -17854,7 +17854,7 @@
         <v>-3.285714285714286</v>
       </c>
       <c r="F562" t="n">
-        <v>7.571428571428571</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="G562" t="n">
         <v>1.285714285714286</v>
@@ -17885,7 +17885,7 @@
         <v>8</v>
       </c>
       <c r="F563" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -17916,7 +17916,7 @@
         <v>1.888888888888889</v>
       </c>
       <c r="F564" t="n">
-        <v>6</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="G564" t="n">
         <v>1.222222222222222</v>
@@ -17947,7 +17947,7 @@
         <v>1.214285714285714</v>
       </c>
       <c r="F565" t="n">
-        <v>4.428571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G565" t="n">
         <v>1.071428571428571</v>
@@ -17978,7 +17978,7 @@
         <v>9</v>
       </c>
       <c r="F566" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G566" t="n">
         <v>2</v>
@@ -18009,7 +18009,7 @@
         <v>1.5</v>
       </c>
       <c r="F567" t="n">
-        <v>4.25</v>
+        <v>1.5</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -18040,7 +18040,7 @@
         <v>3</v>
       </c>
       <c r="F568" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G568" t="n">
         <v>9</v>
@@ -18071,7 +18071,7 @@
         <v>-0.625</v>
       </c>
       <c r="F569" t="n">
-        <v>4.375</v>
+        <v>0.75</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -18102,7 +18102,7 @@
         <v>0.75</v>
       </c>
       <c r="F570" t="n">
-        <v>5.625</v>
+        <v>1.3125</v>
       </c>
       <c r="G570" t="n">
         <v>1.4375</v>
@@ -18133,7 +18133,7 @@
         <v>3</v>
       </c>
       <c r="F571" t="n">
-        <v>6.8</v>
+        <v>1.8</v>
       </c>
       <c r="G571" t="n">
         <v>1.2</v>
@@ -18164,7 +18164,7 @@
         <v>1</v>
       </c>
       <c r="F572" t="n">
-        <v>8.699999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="G572" t="n">
         <v>2.2</v>
@@ -18195,7 +18195,7 @@
         <v>0.5</v>
       </c>
       <c r="F573" t="n">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="G573" t="n">
         <v>1.25</v>
@@ -18226,7 +18226,7 @@
         <v>-2.5</v>
       </c>
       <c r="F574" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -18257,7 +18257,7 @@
         <v>6</v>
       </c>
       <c r="F575" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G575" t="n">
         <v>2</v>
@@ -18288,7 +18288,7 @@
         <v>3.461538461538462</v>
       </c>
       <c r="F576" t="n">
-        <v>4.846153846153846</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="G576" t="n">
         <v>1.076923076923077</v>
@@ -18319,7 +18319,7 @@
         <v>-7</v>
       </c>
       <c r="F577" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -18350,7 +18350,7 @@
         <v>0.5625</v>
       </c>
       <c r="F578" t="n">
-        <v>6.5625</v>
+        <v>1.5</v>
       </c>
       <c r="G578" t="n">
         <v>1.4375</v>
@@ -18381,7 +18381,7 @@
         <v>-8</v>
       </c>
       <c r="F579" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -18412,7 +18412,7 @@
         <v>1.714285714285714</v>
       </c>
       <c r="F580" t="n">
-        <v>3.857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G580" t="n">
         <v>1.142857142857143</v>
@@ -18443,7 +18443,7 @@
         <v>0</v>
       </c>
       <c r="F581" t="n">
-        <v>3.857142857142857</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="G581" t="n">
         <v>1.142857142857143</v>
@@ -18474,7 +18474,7 @@
         <v>2</v>
       </c>
       <c r="F582" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="G582" t="n">
         <v>1.2</v>
@@ -18505,7 +18505,7 @@
         <v>0</v>
       </c>
       <c r="F583" t="n">
-        <v>5.285714285714286</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="G583" t="n">
         <v>1.285714285714286</v>
@@ -18536,7 +18536,7 @@
         <v>2</v>
       </c>
       <c r="F584" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -18567,7 +18567,7 @@
         <v>3.5</v>
       </c>
       <c r="F585" t="n">
-        <v>3.25</v>
+        <v>0.75</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -18598,7 +18598,7 @@
         <v>1.25</v>
       </c>
       <c r="F586" t="n">
-        <v>8.75</v>
+        <v>2.25</v>
       </c>
       <c r="G586" t="n">
         <v>1.75</v>
@@ -18629,7 +18629,7 @@
         <v>2</v>
       </c>
       <c r="F587" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -18660,7 +18660,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F588" t="n">
-        <v>7</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G588" t="n">
         <v>1.333333333333333</v>
@@ -18691,7 +18691,7 @@
         <v>0</v>
       </c>
       <c r="F589" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="G589" t="n">
         <v>1.5</v>
@@ -18722,7 +18722,7 @@
         <v>-2</v>
       </c>
       <c r="F590" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -18753,7 +18753,7 @@
         <v>-7</v>
       </c>
       <c r="F591" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -18784,7 +18784,7 @@
         <v>2.5</v>
       </c>
       <c r="F592" t="n">
-        <v>4.333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -18815,7 +18815,7 @@
         <v>0.5</v>
       </c>
       <c r="F593" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -18846,7 +18846,7 @@
         <v>-12</v>
       </c>
       <c r="F594" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G594" t="n">
         <v>2</v>
@@ -18877,7 +18877,7 @@
         <v>9</v>
       </c>
       <c r="F595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -18908,7 +18908,7 @@
         <v>1.416666666666667</v>
       </c>
       <c r="F596" t="n">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="G596" t="n">
         <v>1.333333333333333</v>
@@ -18939,7 +18939,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="F597" t="n">
-        <v>4.291666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="G597" t="n">
         <v>1.145833333333333</v>
@@ -18970,7 +18970,7 @@
         <v>5</v>
       </c>
       <c r="F598" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G598" t="n">
         <v>2</v>
@@ -19001,7 +19001,7 @@
         <v>5</v>
       </c>
       <c r="F599" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G599" t="n">
         <v>9</v>
@@ -19032,7 +19032,7 @@
         <v>-5</v>
       </c>
       <c r="F600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -19063,7 +19063,7 @@
         <v>-4</v>
       </c>
       <c r="F601" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G601" t="n">
         <v>3</v>
@@ -19094,7 +19094,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="F602" t="n">
-        <v>6.5</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="G602" t="n">
         <v>1.333333333333333</v>
@@ -19125,7 +19125,7 @@
         <v>2.666666666666667</v>
       </c>
       <c r="F603" t="n">
-        <v>5.333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G603" t="n">
         <v>1.666666666666667</v>
@@ -19187,7 +19187,7 @@
         <v>1.5</v>
       </c>
       <c r="F605" t="n">
-        <v>5.857142857142857</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="G605" t="n">
         <v>1.214285714285714</v>
@@ -19218,7 +19218,7 @@
         <v>1.125</v>
       </c>
       <c r="F606" t="n">
-        <v>7</v>
+        <v>1.125</v>
       </c>
       <c r="G606" t="n">
         <v>1.375</v>
@@ -19249,7 +19249,7 @@
         <v>2</v>
       </c>
       <c r="F607" t="n">
-        <v>6.125</v>
+        <v>1.5</v>
       </c>
       <c r="G607" t="n">
         <v>1.375</v>
@@ -19280,7 +19280,7 @@
         <v>1.25</v>
       </c>
       <c r="F608" t="n">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="G608" t="n">
         <v>1.25</v>
@@ -19311,7 +19311,7 @@
         <v>-2.5</v>
       </c>
       <c r="F609" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="G609" t="n">
         <v>1.5</v>
@@ -19342,7 +19342,7 @@
         <v>1.142857142857143</v>
       </c>
       <c r="F610" t="n">
-        <v>5.142857142857143</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -19373,7 +19373,7 @@
         <v>-4</v>
       </c>
       <c r="F611" t="n">
-        <v>14.5</v>
+        <v>5</v>
       </c>
       <c r="G611" t="n">
         <v>3</v>
@@ -19404,7 +19404,7 @@
         <v>2.75</v>
       </c>
       <c r="F612" t="n">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="G612" t="n">
         <v>1.25</v>
@@ -19435,7 +19435,7 @@
         <v>1.75</v>
       </c>
       <c r="F613" t="n">
-        <v>31</v>
+        <v>6.25</v>
       </c>
       <c r="G613" t="n">
         <v>9</v>
@@ -19466,7 +19466,7 @@
         <v>-4</v>
       </c>
       <c r="F614" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -19497,7 +19497,7 @@
         <v>2.5</v>
       </c>
       <c r="F615" t="n">
-        <v>6.25</v>
+        <v>2</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -19528,7 +19528,7 @@
         <v>1.5</v>
       </c>
       <c r="F616" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="G616" t="n">
         <v>2.5</v>
@@ -19559,7 +19559,7 @@
         <v>-6</v>
       </c>
       <c r="F617" t="n">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="G617" t="n">
         <v>1.5</v>
@@ -19590,7 +19590,7 @@
         <v>2.8</v>
       </c>
       <c r="F618" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="G618" t="n">
         <v>1.2</v>
@@ -19621,7 +19621,7 @@
         <v>7</v>
       </c>
       <c r="F619" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G619" t="n">
         <v>3</v>
@@ -19652,7 +19652,7 @@
         <v>5.272727272727272</v>
       </c>
       <c r="F620" t="n">
-        <v>5.363636363636363</v>
+        <v>1.272727272727273</v>
       </c>
       <c r="G620" t="n">
         <v>1.181818181818182</v>
@@ -19683,7 +19683,7 @@
         <v>-3</v>
       </c>
       <c r="F621" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="F622" t="n">
-        <v>7.75</v>
+        <v>1.25</v>
       </c>
       <c r="G622" t="n">
         <v>1.5</v>
@@ -19745,7 +19745,7 @@
         <v>0</v>
       </c>
       <c r="F623" t="n">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -19776,7 +19776,7 @@
         <v>-12</v>
       </c>
       <c r="F624" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G624" t="n">
         <v>2</v>
@@ -19807,7 +19807,7 @@
         <v>-5</v>
       </c>
       <c r="F625" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -19838,7 +19838,7 @@
         <v>1.368421052631579</v>
       </c>
       <c r="F626" t="n">
-        <v>3.842105263157895</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="G626" t="n">
         <v>1.157894736842105</v>
@@ -19869,7 +19869,7 @@
         <v>-1.266666666666667</v>
       </c>
       <c r="F627" t="n">
-        <v>4.533333333333333</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -19900,7 +19900,7 @@
         <v>1.75</v>
       </c>
       <c r="F628" t="n">
-        <v>34.25</v>
+        <v>9.25</v>
       </c>
       <c r="G628" t="n">
         <v>9</v>
@@ -19931,7 +19931,7 @@
         <v>4</v>
       </c>
       <c r="F629" t="n">
-        <v>10.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="G629" t="n">
         <v>2.666666666666667</v>
@@ -19962,7 +19962,7 @@
         <v>4.25</v>
       </c>
       <c r="F630" t="n">
-        <v>5</v>
+        <v>1.375</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -19993,7 +19993,7 @@
         <v>1.727272727272727</v>
       </c>
       <c r="F631" t="n">
-        <v>7.454545454545454</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="G631" t="n">
         <v>1.909090909090909</v>
@@ -20024,7 +20024,7 @@
         <v>1.222222222222222</v>
       </c>
       <c r="F632" t="n">
-        <v>7.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="G632" t="n">
         <v>1.222222222222222</v>
@@ -20055,7 +20055,7 @@
         <v>0</v>
       </c>
       <c r="F633" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G633" t="n">
         <v>4</v>
@@ -20086,7 +20086,7 @@
         <v>-1.666666666666667</v>
       </c>
       <c r="F634" t="n">
-        <v>12.66666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G634" t="n">
         <v>1.666666666666667</v>
@@ -20117,7 +20117,7 @@
         <v>-9</v>
       </c>
       <c r="F635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -20148,7 +20148,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="F636" t="n">
-        <v>9</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -20179,7 +20179,7 @@
         <v>-7</v>
       </c>
       <c r="F637" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -20210,7 +20210,7 @@
         <v>-3</v>
       </c>
       <c r="F638" t="n">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -20241,7 +20241,7 @@
         <v>-0.7777777777777778</v>
       </c>
       <c r="F639" t="n">
-        <v>4</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -20272,7 +20272,7 @@
         <v>2</v>
       </c>
       <c r="F640" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="G640" t="n">
         <v>1.2</v>
@@ -20303,7 +20303,7 @@
         <v>2.8</v>
       </c>
       <c r="F641" t="n">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="G641" t="n">
         <v>1.3</v>
@@ -20334,7 +20334,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="F642" t="n">
-        <v>2.833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G642" t="n">
         <v>1.166666666666667</v>
@@ -20365,7 +20365,7 @@
         <v>1</v>
       </c>
       <c r="F643" t="n">
-        <v>4.4</v>
+        <v>1.4</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -20396,7 +20396,7 @@
         <v>-3.5</v>
       </c>
       <c r="F644" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G644" t="n">
         <v>2</v>
@@ -20427,7 +20427,7 @@
         <v>2</v>
       </c>
       <c r="F645" t="n">
-        <v>5.142857142857143</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -20458,7 +20458,7 @@
         <v>1.4</v>
       </c>
       <c r="F646" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="G646" t="n">
         <v>1.6</v>
@@ -20520,7 +20520,7 @@
         <v>7</v>
       </c>
       <c r="F648" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G648" t="n">
         <v>9</v>
@@ -20551,7 +20551,7 @@
         <v>-1.333333333333333</v>
       </c>
       <c r="F649" t="n">
-        <v>4.666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -20582,7 +20582,7 @@
         <v>-0.5</v>
       </c>
       <c r="F650" t="n">
-        <v>4.5</v>
+        <v>0.25</v>
       </c>
       <c r="G650" t="n">
         <v>1.5</v>
@@ -20613,7 +20613,7 @@
         <v>2</v>
       </c>
       <c r="F651" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -20644,7 +20644,7 @@
         <v>-3.2</v>
       </c>
       <c r="F652" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="G652" t="n">
         <v>1.4</v>
@@ -20675,7 +20675,7 @@
         <v>-1.166666666666667</v>
       </c>
       <c r="F653" t="n">
-        <v>4.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -20706,7 +20706,7 @@
         <v>-3.285714285714286</v>
       </c>
       <c r="F654" t="n">
-        <v>4.714285714285714</v>
+        <v>1</v>
       </c>
       <c r="G654" t="n">
         <v>1.285714285714286</v>
@@ -20737,7 +20737,7 @@
         <v>0.3262897972843836</v>
       </c>
       <c r="F655" t="n">
-        <v>7.379627381803973</v>
+        <v>1.657087683535477</v>
       </c>
       <c r="G655" t="n">
         <v>1.782514426289791</v>
